--- a/表格/数据/herolist.xlsx
+++ b/表格/数据/herolist.xlsx
@@ -4,28 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vertical_keys" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>英雄名字</t>
   </si>
   <si>
     <t>是否激活</t>
-  </si>
-  <si>
-    <t>如果是这种两列的数据，vertical_keys这个key不可更改！</t>
-  </si>
-  <si>
-    <t>vertical_keys</t>
   </si>
   <si>
     <t>npc_dota_hero_ancient_apparition</t>
@@ -390,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -401,57 +395,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,17 +413,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,6 +443,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -503,14 +474,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -534,10 +497,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,6 +510,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -557,181 +551,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,15 +742,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -771,6 +756,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,26 +792,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,7 +803,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,9 +834,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,36 +1311,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1354,7 +1340,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1362,7 +1348,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1370,7 +1356,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1378,7 +1364,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1386,7 +1372,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1394,7 +1380,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1402,7 +1388,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1410,7 +1396,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1418,7 +1404,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1426,7 +1412,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1434,7 +1420,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1442,7 +1428,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1450,7 +1436,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1458,7 +1444,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1466,7 +1452,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1474,7 +1460,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1482,7 +1468,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1490,7 +1476,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1498,7 +1484,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1506,7 +1492,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1514,7 +1500,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1522,7 +1508,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1530,7 +1516,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1538,7 +1524,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1546,7 +1532,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1554,7 +1540,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1562,7 +1548,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1570,7 +1556,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1578,7 +1564,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1586,7 +1572,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1594,7 +1580,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1602,7 +1588,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1610,7 +1596,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1618,7 +1604,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1626,7 +1612,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1634,7 +1620,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1642,7 +1628,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1650,7 +1636,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1658,7 +1644,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1666,7 +1652,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1674,7 +1660,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1682,7 +1668,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1690,7 +1676,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1698,7 +1684,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1706,7 +1692,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1714,7 +1700,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1722,7 +1708,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1730,7 +1716,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1738,7 +1724,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1746,7 +1732,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1754,7 +1740,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1762,7 +1748,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1770,7 +1756,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1778,7 +1764,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1786,7 +1772,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1794,7 +1780,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1802,7 +1788,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1810,7 +1796,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1818,7 +1804,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1826,7 +1812,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1834,7 +1820,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1842,7 +1828,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1850,7 +1836,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1858,7 +1844,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1866,7 +1852,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1874,7 +1860,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1882,7 +1868,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1890,7 +1876,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1898,7 +1884,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1906,7 +1892,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1914,7 +1900,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1922,7 +1908,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1930,7 +1916,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1938,7 +1924,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1946,7 +1932,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1954,7 +1940,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1962,7 +1948,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1970,7 +1956,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1978,7 +1964,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -1986,7 +1972,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1994,7 +1980,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2002,7 +1988,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2010,7 +1996,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2018,7 +2004,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2034,7 +2020,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2042,7 +2028,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2050,7 +2036,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2058,7 +2044,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2066,7 +2052,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -2074,7 +2060,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2082,7 +2068,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2090,7 +2076,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2098,7 +2084,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2106,7 +2092,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2114,7 +2100,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2122,7 +2108,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2130,7 +2116,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -2138,7 +2124,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -2146,7 +2132,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2154,7 +2140,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2162,7 +2148,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -2170,7 +2156,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -2178,7 +2164,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2186,7 +2172,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2194,7 +2180,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2202,7 +2188,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2210,7 +2196,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2218,7 +2204,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2226,7 +2212,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -2234,7 +2220,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -2242,7 +2228,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2250,7 +2236,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -2258,7 +2244,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2266,7 +2252,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -2274,7 +2260,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2282,7 +2268,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -2290,7 +2276,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
